--- a/assets/excel/TemplateReportv2.xlsx
+++ b/assets/excel/TemplateReportv2.xlsx
@@ -16,13 +16,21 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>AJG</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -40,37 +48,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -83,6 +61,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -91,8 +77,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -101,6 +109,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -122,22 +138,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -146,7 +146,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -162,29 +162,37 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,13 +207,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -223,13 +249,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -241,7 +267,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,13 +351,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,115 +381,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,26 +401,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,6 +464,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -485,156 +493,156 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -996,10 +1004,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:U290"/>
+  <dimension ref="A1:U290"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55"/>
@@ -1026,6 +1034,11 @@
     <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="14:14">
+      <c r="N1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="3" spans="1:21">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
